--- a/biology/Botanique/Épiaire_des_bois/Épiaire_des_bois.xlsx
+++ b/biology/Botanique/Épiaire_des_bois/Épiaire_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89piaire_des_bois</t>
+          <t>Épiaire_des_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys sylvatica
 L'Épiaire des bois (Stachys sylvatica) encore appelée Ortie puante est une plante herbacée vivace de la famille des Lamiacées.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89piaire_des_bois</t>
+          <t>Épiaire_des_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante moyenne (15 à 40 cm de haut en moyenne, pouvant atteindre 80 cm). La partie souterraine est constituée d'un rhizome rameux formant de nombreux rejets. Les tiges quadrangulaires sont velues et portent des feuilles opposées longuement pétiolées, largement ovales, pointues, en cœur à la base, dentées, molles et velues, d'un vert sombre, rappelant celles de l'ortie, d'où son nom vernaculaire[1].
-Appareil reproducteur
-Organes reproducteurs
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante moyenne (15 à 40 cm de haut en moyenne, pouvant atteindre 80 cm). La partie souterraine est constituée d'un rhizome rameux formant de nombreux rejets. Les tiges quadrangulaires sont velues et portent des feuilles opposées longuement pétiolées, largement ovales, pointues, en cœur à la base, dentées, molles et velues, d'un vert sombre, rappelant celles de l'ortie, d'où son nom vernaculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Épiaire_des_bois</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89piaire_des_bois</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Inflorescence : fleurs groupées par 3-6 à l'aisselle des feuilles
 Fleurs : rose pourpres tachetées de blanc
 Période de floraison : juin-octobre
@@ -537,44 +589,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89piaire_des_bois</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89piaire_des_bois</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Espèce d'ombre ou de demi-ombre, apprécie les sols riches en éléments nutritifs ; pH basique à neutre.
-Bois frais à humides, haies, talus, chemins forestiers.</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89piaire_des_bois</t>
+          <t>Épiaire_des_bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,17 +610,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Espèce d'ombre ou de demi-ombre, apprécie les sols riches en éléments nutritifs ; pH basique à neutre.
+Bois frais à humides, haies, talus, chemins forestiers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Épiaire_des_bois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89piaire_des_bois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alimentaire
-La plante dégage au froissement une odeur désagréable caractéristique. Les feuilles et jeunes pousses consommées crues en salade confèrent ainsi une note musquée ou de serpillière mouillée que tout le monde n'apprécie pas ; en revanche, celle-ci disparaît sous l'action de la chaleur[2], remplacée par un parfum de cèpe. Les feuilles et pousses de ce « cèpe végétal », finement hachées puis plongées dans l'eau en vue d'une cuisson prolongée, font ainsi un excellent potage, velouté ou poêlée, pouvant aromatiser des infusions (sirops, crèmes dessert, glaces), des pâtés, ou assaisonner des plats de champignons ou des omelettes[3].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante dégage au froissement une odeur désagréable caractéristique. Les feuilles et jeunes pousses consommées crues en salade confèrent ainsi une note musquée ou de serpillière mouillée que tout le monde n'apprécie pas ; en revanche, celle-ci disparaît sous l'action de la chaleur, remplacée par un parfum de cèpe. Les feuilles et pousses de ce « cèpe végétal », finement hachées puis plongées dans l'eau en vue d'une cuisson prolongée, font ainsi un excellent potage, velouté ou poêlée, pouvant aromatiser des infusions (sirops, crèmes dessert, glaces), des pâtés, ou assaisonner des plats de champignons ou des omelettes.
 Les fleurs peuvent servir à décorer les plats.
 On peut l’utiliser blanchie, en légume d’accompagnement avec du poisson.
-Médicinal
-Cette Épiaire est antispasmodique, emménagogue et vulnéraire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Épiaire_des_bois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89piaire_des_bois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médicinal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette Épiaire est antispasmodique, emménagogue et vulnéraire.
 </t>
         </is>
       </c>
